--- a/src/brute_force/always_hit_results/always_hit_results.xlsx
+++ b/src/brute_force/always_hit_results/always_hit_results.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,417 +469,584 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Win rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 5 of Diamonds, 7 of Hearts, 3 of Diamonds, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[10 of Hearts, 4 of Diamonds, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>[6 of Clubs, Jack of Spades, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>26</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 6 of Spades]</t>
+        </is>
+      </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>900</v>
+      </c>
+      <c r="H2" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 9 of Diamonds, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
+          <t>[Queen of Spades, 2 of Clubs, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, 10 of Clubs, Jack of Spades]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>800</v>
+      </c>
+      <c r="H3" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 6 of Clubs, 3 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[3 of Hearts, Jack of Diamonds, 6 of Spades]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
+          <t>[4 of Hearts, 5 of Hearts, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 10 of Diamonds, Jack of Clubs]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>900</v>
+      </c>
+      <c r="H4" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[King of Spades, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[6 of Spades, King of Spades, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>[9 of Hearts, 7 of Hearts, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[1 of Spades, 1 of Clubs, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
-        <v>24</v>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>800</v>
+      </c>
+      <c r="H5" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[5 of Spades, 9 of Spades, 3 of Spades, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, 8 of Spades, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
+          <t>[5 of Clubs, 9 of Spades, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 6 of Clubs, 2 of Hearts, 1 of Clubs]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>700</v>
+      </c>
+      <c r="H6" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 8 of Hearts, 4 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[3 of Clubs, 10 of Hearts, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>21</v>
+          <t>[Queen of Spades, 4 of Diamonds, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, 7 of Clubs]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>800</v>
+      </c>
+      <c r="H7" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[4 of Hearts, 7 of Diamonds, 1 of Spades, 3 of Diamonds, 4 of Spades]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>18</v>
+          <t>[Queen of Hearts, 3 of Spades, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 10 of Spades]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>700</v>
+      </c>
+      <c r="H8" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 2 of Spades, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[7 of Spades, 4 of Clubs, 3 of Hearts, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>19</v>
+          <t>[Jack of Diamonds, 5 of Diamonds, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, 6 of Diamonds, 8 of Diamonds]</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>800</v>
+      </c>
+      <c r="H9" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[7 of Clubs, King of Hearts, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[2 of Diamonds, 5 of Hearts, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>27</v>
+          <t>[2 of Spades, Jack of Diamonds, 4 of Clubs, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>26</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 3 of Clubs, 6 of Diamonds, 8 of Diamonds]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>700</v>
+      </c>
+      <c r="H10" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 1 of Clubs, 6 of Clubs, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[4 of Hearts, Queen of Spades, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>22</v>
+          <t>[1 of Spades, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[10 of Spades, Queen of Clubs]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>600</v>
+      </c>
+      <c r="H11" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[King of Hearts, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[2 of Spades, 10 of Spades, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>21</v>
+          <t>[9 of Clubs, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, 8 of Clubs, 10 of Diamonds]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>700</v>
+      </c>
+      <c r="H12" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 8 of Clubs, 2 of Hearts, 5 of Diamonds, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[1 of Hearts, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>23</v>
+          <t>[8 of Spades, 7 of Diamonds, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[9 of Spades, 3 of Hearts, 4 of Diamonds, 8 of Hearts]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>800</v>
+      </c>
+      <c r="H13" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 9 of Hearts, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[10 of Diamonds, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
+          <t>[2 of Diamonds, 2 of Hearts, 6 of Spades, 4 of Hearts, 6 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, 8 of Hearts]</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>900</v>
+      </c>
+      <c r="H14" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[King of Diamonds, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[Jack of Hearts, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
+          <t>[4 of Spades, King of Spades, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>23</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[8 of Spades, Queen of Diamonds]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>800</v>
+      </c>
+      <c r="H15" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[3 of Spades, 10 of Spades, 5 of Spades]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
+          <t>[2 of Spades, 3 of Clubs, 3 of Diamonds, 5 of Spades, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>23</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, 1 of Hearts]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>700</v>
+      </c>
+      <c r="H16" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 1 of Spades]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[Queen of Diamonds, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>18</v>
+          <t>[Queen of Diamonds, 4 of Clubs, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 1 of Diamonds, 7 of Diamonds, 9 of Hearts]</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, 10 of Clubs, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[4 of Spades, 6 of Diamonds, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" t="n">
-        <v>20</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Tie</t>
-        </is>
-      </c>
-    </row>
-    <row r="19"/>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>800</v>
+      </c>
+      <c r="H17" t="n">
+        <v>43.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -891,7 +1058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,360 +1074,529 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Win rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[6 of Spades, Queen of Clubs, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[4 of Hearts, 3 of Diamonds, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>[7 of Diamonds, 10 of Diamonds, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, Jack of Diamonds, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>24</v>
       </c>
-      <c r="D2" t="n">
-        <v>18</v>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>900</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[2 of Clubs, Queen of Hearts, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[King of Clubs, 6 of Diamonds, 3 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
+          <t>[4 of Hearts, Jack of Clubs, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 10 of Diamonds, Jack of Diamonds]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>800</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 2 of Hearts, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[King of Hearts, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
+          <t>[8 of Spades, 6 of Diamonds, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[King of Spades, 3 of Clubs, 5 of Diamonds]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>900</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 8 of Hearts, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[4 of Diamonds, 2 of Spades, 3 of Spades, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
+          <t>[1 of Spades, 1 of Diamonds, King of Hearts, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, King of Hearts]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>800</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 9 of Hearts, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, 5 of Diamonds, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>[7 of Clubs, Queen of Hearts, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>26</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 2 of Clubs, 2 of Spades, 10 of Spades, 3 of Spades]</t>
+        </is>
+      </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>700</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, King of Clubs, 1 of Spades, 4 of Clubs, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[5 of Spades, 5 of Clubs, 7 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>27</v>
+          <t>[9 of Hearts, 5 of Spades, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[King of Spades, 1 of Spades]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>600</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 8 of Diamonds, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[9 of Spades, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
+          <t>[1 of Diamonds, 4 of Hearts, Jack of Hearts, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, Jack of Hearts, 4 of Spades]</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>19</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>500</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[9 of Clubs, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, 9 of Spades, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>19</v>
+          <t>[4 of Clubs, 5 of Clubs, 3 of Diamonds, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>22</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 4 of Spades, 8 of Spades]</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>400</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 4 of Hearts, 5 of Diamonds, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[Queen of Clubs, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>24</v>
+          <t>[Jack of Spades, 2 of Diamonds, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, Queen of Clubs]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>500</v>
+      </c>
+      <c r="H10" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 3 of Diamonds, King of Diamonds, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[3 of Hearts, 8 of Spades, 3 of Spades, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>24</v>
+          <t>[6 of Spades, 5 of Hearts, 6 of Spades, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>27</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, 7 of Spades, 8 of Diamonds]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>400</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 5 of Spades, 2 of Diamonds, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[King of Spades, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>26</v>
+          <t>[7 of Hearts, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 8 of Hearts, 6 of Clubs, 2 of Hearts]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>400</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[6 of Clubs, Jack of Spades, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[Queen of Diamonds, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>26</v>
+          <t>[9 of Clubs, 6 of Hearts, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>23</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[King of Clubs, 2 of Diamonds, 1 of Clubs, King of Diamonds]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>300</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[2 of Spades, 1 of Hearts, 1 of Diamonds, Jack of Diamonds, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[3 of Hearts, 8 of Spades, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>19</v>
+          <t>[10 of Clubs, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 2 of Clubs, 1 of Hearts, Queen of Diamonds]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>400</v>
+      </c>
+      <c r="H14" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[4 of Spades, 7 of Hearts, 4 of Diamonds, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[2 of Clubs, 6 of Clubs, 7 of Diamonds, 4 of Spades]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>25</v>
+          <t>[8 of Clubs, 2 of Hearts, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 4 of Diamonds, 5 of Spades, 5 of Clubs]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>300</v>
+      </c>
+      <c r="H15" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 1 of Clubs, 9 of Hearts, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[Queen of Hearts, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>24</v>
+          <t>[6 of Clubs, Queen of Clubs, 3 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 6 of Hearts, 4 of Clubs]</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>20</v>
@@ -1270,13 +1606,17 @@
           <t>Lose</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>200</v>
+      </c>
+      <c r="H16" t="n">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1289,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,200 +1645,292 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Win rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[4 of Diamonds, 10 of Diamonds, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
+          <t>[3 of Diamonds, Jack of Clubs, 4 of Spades, 3 of Spades]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[1 of Spades, 9 of Diamonds]</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 10 of Clubs, 6 of Spades]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[6 of Diamonds, 6 of Diamonds, 4 of Hearts, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>[Queen of Spades, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, 3 of Clubs, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[6 of Spades, 6 of Clubs, 3 of Hearts, 1 of Hearts, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[4 of Diamonds, Queen of Diamonds, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
+          <t>[3 of Clubs, Queen of Diamonds, 3 of Spades, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[5 of Spades, 4 of Hearts, 3 of Spades, 5 of Diamonds, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 5 of Clubs, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
+          <t>[3 of Hearts, 6 of Spades, 5 of Spades, 4 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 8 of Clubs]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>900</v>
+      </c>
+      <c r="H5" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[10 of Spades, 4 of Spades, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
+          <t>[9 of Clubs, 8 of Diamonds, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>27</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 4 of Diamonds, 10 of Hearts]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>800</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 4 of Clubs, 2 of Spades, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[Jack of Clubs, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>25</v>
+          <t>[2 of Spades, 1 of Diamonds, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 5 of Spades, 7 of Diamonds, 5 of Diamonds]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>700</v>
+      </c>
+      <c r="H7" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 7 of Spades, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[3 of Spades, 3 of Clubs, King of Diamonds, 2 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>21</v>
+          <t>[10 of Spades, 7 of Hearts, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>26</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[6 of Spades, 2 of Spades, 8 of Hearts, 9 of Diamonds]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>600</v>
+      </c>
+      <c r="H8" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[King of Spades, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>[Jack of Clubs, 7 of Spades, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>21</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[King of Spades, Queen of Hearts]</t>
+        </is>
+      </c>
       <c r="D9" t="n">
         <v>20</v>
       </c>
@@ -1506,190 +1938,323 @@
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>700</v>
+      </c>
+      <c r="H9" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1 of Spades, 5 of Spades, 3 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[9 of Diamonds, 5 of Diamonds, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>19</v>
+          <t>[1 of Spades, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>21</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[10 of Diamonds, 8 of Spades]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>800</v>
+      </c>
+      <c r="H10" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 2 of Hearts, 2 of Diamonds, 6 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[8 of Hearts, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>19</v>
+          <t>[4 of Hearts, Queen of Diamonds, 2 of Hearts, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 10 of Diamonds]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>700</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[9 of Spades, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[8 of Spades, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>[1 of Hearts, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>18</v>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, Jack of Diamonds]</t>
+        </is>
+      </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>600</v>
+      </c>
+      <c r="H12" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[4 of Clubs, Jack of Spades, 1 of Spades, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>20</v>
+          <t>[Jack of Diamonds, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 4 of Diamonds, 9 of Hearts, 5 of Diamonds]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>700</v>
+      </c>
+      <c r="H13" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 9 of Clubs, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[7 of Spades, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>[8 of Hearts, King of Spades]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>18</v>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[King of Clubs, 1 of Diamonds]</t>
+        </is>
+      </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>600</v>
+      </c>
+      <c r="H14" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[2 of Spades, King of Hearts, 5 of Clubs, 3 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[Jack of Clubs, 6 of Hearts, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
+          <t>[6 of Diamonds, 8 of Spades, 2 of Clubs, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[5 of Hearts, 7 of Clubs, 5 of Clubs]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>500</v>
+      </c>
+      <c r="H15" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 8 of Clubs, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[4 of Spades, 10 of Diamonds, 2 of Clubs, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>23</v>
+          <t>[9 of Spades, 5 of Clubs, 2 of Diamonds, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>25</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, Jack of Spades]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>400</v>
+      </c>
+      <c r="H16" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 6 of Hearts, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[1 of Diamonds, 3 of Diamonds, Queen of Spades, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>24</v>
+          <t>[4 of Spades, 2 of Diamonds, 7 of Hearts, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, 6 of Diamonds, 4 of Clubs]</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>300</v>
+      </c>
+      <c r="H17" t="n">
+        <v>29.41176470588236</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, 6 of Clubs, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>400</v>
+      </c>
+      <c r="H18" t="n">
+        <v>29.41176470588236</v>
       </c>
     </row>
   </sheetData>
@@ -1703,7 +2268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1719,291 +2284,427 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Win rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 5 of Diamonds, 2 of Diamonds, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[Queen of Clubs, 3 of Diamonds, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>[7 of Clubs, Queen of Diamonds, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>27</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, King of Clubs]</t>
+        </is>
+      </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>900</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[7 of Diamonds, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
+          <t>[1 of Diamonds, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[9 of Spades, 4 of Diamonds, King of Diamonds]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[King of Clubs, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[4 of Hearts, 8 of Spades, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
+          <t>[3 of Spades, 3 of Clubs, Queen of Hearts, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>26</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, Jack of Spades, 3 of Clubs]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>900</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 6 of Spades, 5 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[6 of Clubs, Jack of Spades, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
+          <t>[9 of Clubs, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 7 of Spades, 9 of Diamonds]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[3 of Spades, 4 of Spades, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[1 of Spades, 4 of Spades, 9 of Hearts, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
+          <t>[5 of Diamonds, 7 of Clubs, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 3 of Hearts, King of Spades]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>900</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[8 of Spades, 6 of Hearts, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[5 of Spades, 7 of Diamonds, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>[7 of Diamonds, King of Diamonds, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>22</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[1 of Spades, 2 of Spades, 10 of Clubs, 2 of Clubs, 5 of Hearts]</t>
+        </is>
+      </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>800</v>
+      </c>
+      <c r="H7" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 7 of Spades, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[9 of Spades, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
+          <t>[5 of Clubs, Jack of Spades, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 6 of Diamonds, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>700</v>
+      </c>
+      <c r="H8" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[King of Spades, 7 of Hearts, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[Queen of Spades, 6 of Clubs, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>24</v>
+          <t>[5 of Clubs, 7 of Spades, 3 of Hearts, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, 6 of Hearts, 10 of Spades]</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>800</v>
+      </c>
+      <c r="H9" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[King of Clubs, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[Queen of Diamonds, 4 of Diamonds, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>20</v>
+          <t>[5 of Spades, 1 of Diamonds, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, Queen of Spades, Queen of Clubs]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>900</v>
+      </c>
+      <c r="H10" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 2 of Hearts, 4 of Hearts, 9 of Spades, 3 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[2 of Spades, 5 of Spades, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>19</v>
+          <t>[4 of Clubs, 2 of Diamonds, 1 of Clubs, 9 of Hearts, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[4 of Spades, 2 of Clubs, Jack of Clubs, Queen of Hearts]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>800</v>
+      </c>
+      <c r="H11" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 1 of Hearts, King of Hearts, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[3 of Diamonds, 6 of Diamonds, 4 of Diamonds, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>23</v>
+          <t>[3 of Diamonds, 4 of Spades, 9 of Clubs, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, Jack of Diamonds, 8 of Clubs]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>700</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 3 of Hearts, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[3 of Clubs, 7 of Clubs, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>[King of Spades, 6 of Clubs, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>21</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[6 of Spades, 2 of Spades, Jack of Clubs]</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>18</v>
@@ -2013,120 +2714,152 @@
           <t>Win</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>800</v>
+      </c>
+      <c r="H13" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 5 of Clubs, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, 5 of Hearts, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>22</v>
+          <t>[7 of Hearts, Jack of Hearts, 2 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, 1 of Spades]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>900</v>
+      </c>
+      <c r="H14" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 5 of Hearts, 2 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[King of Spades, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>18</v>
+          <t>[Queen of Diamonds, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, King of Clubs]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>800</v>
+      </c>
+      <c r="H15" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[6 of Diamonds, 5 of Clubs, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>19</v>
+          <t>[Queen of Clubs, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 3 of Spades, 8 of Hearts, 1 of Clubs, 8 of Hearts]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>900</v>
+      </c>
+      <c r="H16" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[10 of Spades, 2 of Clubs, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[9 of Diamonds, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
+          <t>[8 of Clubs, 2 of Hearts, 6 of Clubs, 4 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 8 of Spades]</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[4 of Clubs, 3 of Hearts, 6 of Spades, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[1 of Spades, 4 of Clubs, 9 of Clubs, 2 of Spades, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>21</v>
-      </c>
-      <c r="D18" t="n">
-        <v>26</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2156,391 +2889,582 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Win rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[6 of Diamonds, 4 of Diamonds, 6 of Clubs, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
+          <t>[7 of Spades, 8 of Clubs, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, 8 of Spades]</t>
+        </is>
       </c>
       <c r="D2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="n">
         <v>25</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[2 of Spades, 3 of Spades, 1 of Spades, Jack of Diamonds, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
+          <t>[3 of Clubs, Queen of Hearts, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 9 of Clubs]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>900</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 3 of Clubs, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[Queen of Hearts, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>[3 of Hearts, 9 of Diamonds, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 7 of Diamonds, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>21</v>
       </c>
-      <c r="D4" t="n">
-        <v>17</v>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>800</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 6 of Spades, 2 of Spades, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[9 of Clubs, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
+          <t>[6 of Diamonds, 4 of Clubs, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 9 of Spades, Queen of Hearts]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>800</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[3 of Spades, 3 of Clubs, 1 of Hearts, 6 of Clubs, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[Jack of Spades, 5 of Diamonds, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
+          <t>[5 of Spades, 2 of Hearts, 5 of Diamonds, 2 of Clubs, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 1 of Diamonds]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>700</v>
+      </c>
+      <c r="H6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 5 of Hearts, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[2 of Diamonds, 3 of Diamonds, 2 of Hearts, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>22</v>
+          <t>[7 of Clubs, 9 of Hearts, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>600</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[10 of Spades, 3 of Hearts, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[8 of Spades, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>23</v>
+          <t>[10 of Diamonds, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[King of Spades, King of Hearts]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>600</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 5 of Spades, 1 of Clubs, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[Queen of Clubs, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>22</v>
+          <t>[4 of Spades, 7 of Hearts, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, 2 of Clubs, 2 of Diamonds, 3 of Spades]</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>700</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 6 of Hearts, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>22</v>
+          <t>[Jack of Hearts, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>21</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 3 of Clubs, 5 of Hearts, Queen of Diamonds]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>800</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[King of Spades, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, 1 of Spades]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>18</v>
+          <t>[2 of Diamonds, 8 of Spades, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, Jack of Diamonds, 1 of Clubs, 1 of Hearts, 6 of Diamonds]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>700</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 2 of Hearts, 4 of Spades, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[9 of Diamonds, 6 of Diamonds, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>[6 of Spades, 10 of Spades, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>26</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[9 of Spades, 2 of Spades, 3 of Spades, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>24</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>600</v>
+      </c>
+      <c r="H12" t="n">
         <v>25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>22</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 4 of Hearts, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[7 of Spades, 4 of Clubs, 5 of Hearts, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>21</v>
+          <t>[5 of Hearts, 10 of Diamonds, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, 7 of Diamonds, 1 of Spades, King of Clubs]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>500</v>
+      </c>
+      <c r="H13" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[4 of Spades, Jack of Clubs, 1 of Diamonds, 2 of Clubs, 4 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[10 of Spades, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>21</v>
+          <t>[9 of Clubs, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, 5 of Diamonds, 7 of Clubs]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>600</v>
+      </c>
+      <c r="H14" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[King of Hearts, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
+          <t>[King of Diamonds, 4 of Diamonds, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, 4 of Spades, 10 of Hearts]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>700</v>
+      </c>
+      <c r="H15" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, Queen of Diamonds, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[8 of Spades, 8 of Hearts, 5 of Spades]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>[2 of Spades, 6 of Clubs, 3 of Hearts, 4 of Hearts, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>25</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 4 of Hearts, 5 of Spades]</t>
+        </is>
+      </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>600</v>
+      </c>
+      <c r="H16" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[2 of Clubs, 4 of Diamonds, 9 of Hearts, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
+          <t>[King of Spades, 3 of Diamonds, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D17" t="n">
+        <v>21</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>500</v>
+      </c>
+      <c r="H17" t="n">
         <v>25</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -2554,7 +3478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2570,414 +3494,616 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Win rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[9 of Clubs, 4 of Diamonds, 2 of Hearts, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>[4 of Diamonds, 10 of Diamonds, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>21</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, Queen of Clubs]</t>
+        </is>
+      </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, 1 of Spades]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
+          <t>[King of Clubs, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 8 of Diamonds, Queen of Diamonds]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H3" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[3 of Clubs, Jack of Hearts, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 3 of Hearts, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
+          <t>[Jack of Diamonds, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, 8 of Spades, 3 of Hearts]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H4" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 3 of Diamonds, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[1 of Diamonds, 2 of Hearts, 6 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
+          <t>[9 of Clubs, 6 of Spades, 3 of Spades]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H5" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[4 of Hearts, Jack of Diamonds, 6 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[9 of Diamonds, 3 of Spades, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
+          <t>[Jack of Spades, 5 of Spades, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 6 of Clubs, 2 of Hearts]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 4 of Hearts, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[Queen of Spades, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>23</v>
+          <t>[4 of Clubs, 1 of Clubs, King of Hearts, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 7 of Diamonds]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[5 of Spades, Queen of Hearts, 1 of Diamonds, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[Jack of Clubs, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>23</v>
+          <t>[9 of Hearts, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 8 of Hearts, Jack of Hearts]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>900</v>
+      </c>
+      <c r="H8" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[King of Clubs, 5 of Clubs, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[2 of Diamonds, 7 of Hearts, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>24</v>
+          <t>[7 of Hearts, 8 of Diamonds, 1 of Spades, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, 7 of Diamonds]</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>800</v>
+      </c>
+      <c r="H9" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[King of Hearts, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[10 of Hearts, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>20</v>
+          <t>[King of Spades, 7 of Spades, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>27</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, Queen of Clubs]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>700</v>
+      </c>
+      <c r="H10" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 4 of Spades, 5 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[6 of Spades, 5 of Diamonds, 3 of Clubs, 2 of Diamonds, 4 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>19</v>
+          <t>[5 of Clubs, 1 of Clubs, 10 of Diamonds, 2 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 9 of Spades]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>700</v>
+      </c>
+      <c r="H11" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[6 of Clubs, King of Diamonds, 1 of Hearts, 2 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[7 of Diamonds, 2 of Spades, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>19</v>
+          <t>[9 of Spades, 7 of Hearts, 6 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>22</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, 5 of Diamonds, Queen of Hearts]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>600</v>
+      </c>
+      <c r="H12" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 7 of Clubs, 5 of Diamonds, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 6 of Diamonds, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>25</v>
+          <t>[6 of Diamonds, 6 of Diamonds, 5 of Hearts, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>26</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[5 of Hearts, 4 of Hearts, 4 of Hearts, 3 of Spades, 7 of Spades]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>500</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[7 of Spades, 8 of Hearts, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[8 of Clubs, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>[9 of Diamonds, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>19</v>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, Jack of Spades]</t>
+        </is>
+      </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>400</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 7 of Spades, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[10 of Spades, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>19</v>
+          <t>[3 of Diamonds, 2 of Clubs, 2 of Spades, 4 of Spades, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 5 of Clubs, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>500</v>
+      </c>
+      <c r="H15" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 3 of Spades, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[8 of Clubs, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
+          <t>[2 of Clubs, 2 of Spades, 1 of Hearts, 3 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, King of Spades, 4 of Diamonds]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>600</v>
+      </c>
+      <c r="H16" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 6 of Diamonds, 5 of Hearts, 4 of Spades]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[6 of Spades, King of Diamonds, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>21</v>
+          <t>[4 of Spades, Jack of Hearts, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, 1 of Spades]</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>500</v>
+      </c>
+      <c r="H17" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[8 of Spades, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[4 of Clubs, 1 of Spades, 7 of Clubs, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+          <t>[6 of Clubs, Jack of Clubs, 2 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>18</v>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, Queen of Hearts, 10 of Spades]</t>
+        </is>
+      </c>
       <c r="D18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>600</v>
+      </c>
+      <c r="H18" t="n">
+        <v>35.29411764705883</v>
       </c>
     </row>
   </sheetData>
@@ -2991,7 +4117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3007,222 +4133,325 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Win rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[8 of Hearts, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[8 of Hearts, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>[1 of Diamonds, 6 of Clubs, Queen of Hearts, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[8 of Spades, 6 of Spades, 4 of Spades]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>18</v>
       </c>
-      <c r="D2" t="n">
-        <v>19</v>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>900</v>
+      </c>
+      <c r="H2" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 1 of Spades]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[Jack of Spades, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
+          <t>[10 of Spades, 6 of Spades, 3 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, 7 of Spades, Queen of Hearts]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 2 of Clubs, 5 of Diamonds, 3 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[Jack of Hearts, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
+          <t>[Jack of Spades, 6 of Hearts, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[1 of Spades, Queen of Spades]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>900</v>
+      </c>
+      <c r="H4" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[9 of Clubs, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[7 of Spades, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>[10 of Diamonds, 3 of Clubs, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 3 of Hearts, 7 of Hearts, 3 of Diamonds, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
-        <v>18</v>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>800</v>
+      </c>
+      <c r="H5" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[10 of Spades, 6 of Hearts, 1 of Diamonds, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[5 of Diamonds, 4 of Hearts, 4 of Clubs, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>24</v>
+          <t>[10 of Hearts, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 1 of Diamonds]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>700</v>
+      </c>
+      <c r="H6" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[3 of Clubs, Jack of Spades, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[4 of Diamonds, King of Hearts, 2 of Hearts, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>23</v>
+          <t>[5 of Spades, 10 of Diamonds, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, 7 of Diamonds, Jack of Hearts]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>600</v>
+      </c>
+      <c r="H7" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[3 of Spades, 4 of Hearts, 5 of Clubs, 6 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[9 of Hearts, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>18</v>
+          <t>[10 of Clubs, 1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, King of Diamonds, Jack of Diamonds]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>700</v>
+      </c>
+      <c r="H8" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1 of Spades, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[3 of Spades, 10 of Diamonds, 2 of Clubs, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>18</v>
+          <t>[Queen of Clubs, 5 of Clubs, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, 9 of Spades, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>600</v>
+      </c>
+      <c r="H9" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 7 of Hearts, 3 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, 3 of Diamonds, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>19</v>
+          <t>[9 of Hearts, 5 of Hearts, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[King of Spades, 1 of Clubs]</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>21</v>
@@ -3232,189 +4461,254 @@
           <t>Lose</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>500</v>
+      </c>
+      <c r="H10" t="n">
+        <v>43.75</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[5 of Spades, 9 of Clubs, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, 2 of Hearts, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>22</v>
+          <t>[8 of Diamonds, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 2 of Clubs, 2 of Spades, Jack of Hearts]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>600</v>
+      </c>
+      <c r="H11" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[2 of Diamonds, King of Diamonds, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>19</v>
+          <t>[3 of Spades, 2 of Spades, 9 of Clubs, 2 of Diamonds, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>21</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, 6 of Hearts, Queen of Spades]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>700</v>
+      </c>
+      <c r="H12" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[9 of Spades, 6 of Diamonds, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 5 of Spades, 4 of Spades]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>25</v>
+          <t>[2 of Hearts, 8 of Diamonds, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 1 of Spades, 6 of Diamonds, 5 of Clubs]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>800</v>
+      </c>
+      <c r="H13" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 6 of Spades, 4 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[8 of Clubs, 2 of Diamonds, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
+          <t>[4 of Clubs, 9 of Spades, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 4 of Hearts, 10 of Spades]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>900</v>
+      </c>
+      <c r="H14" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[6 of Spades, 3 of Hearts, 7 of Clubs, 7 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>18</v>
+          <t>[8 of Hearts, 6 of Clubs, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>23</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, King of Diamonds]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>800</v>
+      </c>
+      <c r="H15" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[Queen of Spades, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[King of Hearts, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
+          <t>[7 of Spades, 4 of Hearts, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, King of Spades, 8 of Spades]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>800</v>
+      </c>
+      <c r="H16" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 9 of Spades, 6 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[King of Spades, 3 of Clubs, 2 of Spades, 4 of Spades]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>[1 of Hearts, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>19</v>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[3 of Spades, King of Clubs, King of Hearts]</t>
+        </is>
+      </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[King of Diamonds, 5 of Hearts, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[6 of Clubs, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>900</v>
+      </c>
+      <c r="H17" t="n">
+        <v>43.75</v>
       </c>
     </row>
   </sheetData>
@@ -3428,7 +4722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3444,368 +4738,616 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Win rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 2 of Spades, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[3 of Spades, 4 of Diamonds, 2 of Clubs, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
+          <t>[2 of Hearts, 5 of Diamonds, Jack of Spades, 4 of Spades]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 2 of Spades, 7 of Hearts, 4 of Hearts]</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 9 of Clubs, 4 of Clubs, 2 of Diamonds, 3 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[King of Clubs, 5 of Diamonds, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
+          <t>[9 of Clubs, 4 of Hearts, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[King of Hearts, King of Spades]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H3" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 3 of Diamonds, 7 of Diamonds, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[1 of Diamonds, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>[9 of Diamonds, 2 of Diamonds, 4 of Diamonds, 1 of Hearts, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>22</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 7 of Spades, Jack of Hearts]</t>
+        </is>
+      </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 7 of Hearts, 7 of Diamonds, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[3 of Diamonds, 1 of Clubs, 10 of Hearts, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
+          <t>[5 of Diamonds, 2 of Diamonds, 8 of Hearts, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 6 of Spades, 7 of Clubs, 8 of Spades]</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>24</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H5" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[3 of Spades, 5 of Diamonds, 6 of Clubs, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>24</v>
+          <t>[6 of Clubs, 7 of Diamonds, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 9 of Hearts]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H6" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[6 of Diamonds, Queen of Clubs, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
+          <t>[King of Hearts, 3 of Diamonds, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, 8 of Spades]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="H7" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 6 of Hearts, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>18</v>
+          <t>[10 of Spades, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, Queen of Clubs]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H8" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 5 of Spades, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[King of Spades, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>19</v>
+          <t>[1 of Clubs, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 3 of Hearts, 10 of Hearts]</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H9" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 9 of Diamonds, 2 of Hearts, 2 of Clubs, 6 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, 5 of Hearts, 4 of Hearts, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>23</v>
+          <t>[5 of Clubs, Jack of Clubs, 2 of Clubs, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>26</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, 6 of Hearts, Queen of Diamonds]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H10" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[5 of Spades, 8 of Clubs, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[Queen of Diamonds, 2 of Spades, 3 of Hearts, 5 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>22</v>
+          <t>[6 of Spades, 5 of Spades, 3 of Clubs, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, 1 of Hearts]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1400</v>
+      </c>
+      <c r="H11" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 1 of Clubs, 9 of Hearts, 1 of Spades, 1 of Hearts, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[8 of Hearts, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>21</v>
+          <t>[King of Clubs, 4 of Clubs, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>24</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[5 of Hearts, Jack of Diamonds, 3 of Clubs]</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>18</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H12" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[6 of Clubs, 4 of Hearts, 6 of Spades, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>20</v>
+          <t>[Jack of Clubs, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[9 of Spades, 8 of Clubs]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1400</v>
+      </c>
+      <c r="H13" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[King of Hearts, 7 of Spades, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[1 of Hearts, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>24</v>
+          <t>[Queen of Spades, 3 of Diamonds, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, King of Spades]</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>20</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1400</v>
+      </c>
+      <c r="H14" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[10 of Spades, 7 of Hearts, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[4 of Spades, 9 of Diamonds, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>27</v>
+          <t>[1 of Diamonds, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, Queen of Clubs]</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1400</v>
+      </c>
+      <c r="H15" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[King of Clubs, 3 of Hearts, 5 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>[4 of Diamonds, 1 of Spades, 3 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>18</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, King of Clubs]</t>
+        </is>
+      </c>
       <c r="D16" t="n">
+        <v>19</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H16" t="n">
+        <v>58.82352941176471</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 2 of Hearts, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>18</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Tie</t>
-        </is>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1400</v>
+      </c>
+      <c r="H17" t="n">
+        <v>58.82352941176471</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 2 of Clubs, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, 9 of Hearts, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>26</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H18" t="n">
+        <v>58.82352941176471</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +5361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3835,131 +5377,190 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Win rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[6 of Spades, 6 of Clubs, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[5 of Spades, 8 of Spades, 1 of Diamonds, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
+          <t>[Queen of Clubs, King of Spades]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, King of Clubs]</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 10 of Diamonds, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[4 of Diamonds, 7 of Clubs, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
+          <t>[King of Spades, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, Jack of Hearts]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[King of Spades, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[3 of Clubs, 9 of Hearts, 3 of Spades, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
+          <t>[1 of Hearts, 3 of Spades, 10 of Clubs, 3 of Spades, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 6 of Hearts, Jack of Diamonds]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[2 of Hearts, Jack of Clubs, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, 2 of Spades, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>[1 of Hearts, 4 of Clubs, 10 of Spades, 2 of Clubs, 4 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>21</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[5 of Spades, King of Diamonds, 9 of Clubs]</t>
+        </is>
+      </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 2 of Clubs, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[Queen of Diamonds, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>[9 of Hearts, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>18</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, King of Diamonds]</t>
+        </is>
+      </c>
       <c r="D6" t="n">
         <v>20</v>
       </c>
@@ -3967,282 +5568,391 @@
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[1 of Spades, 7 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[1 of Hearts, 2 of Clubs, Queen of Hearts, 4 of Spades]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>[1 of Clubs, 5 of Spades, 2 of Spades]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>18</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, 3 of Clubs, 2 of Diamonds, 5 of Hearts]</t>
+        </is>
+      </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>900</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[10 of Spades, 7 of Spades, 5 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[6 of Clubs, Jack of Diamonds, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>22</v>
+          <t>[9 of Spades, 6 of Clubs, 4 of Spades]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 6 of Clubs, 4 of Clubs]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>800</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[5 of Spades, 10 of Clubs, 3 of Spades]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>[10 of Diamonds, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>21</v>
       </c>
-      <c r="D9" t="n">
-        <v>18</v>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>700</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 5 of Hearts, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[4 of Hearts, 3 of Clubs, 6 of Spades, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>[8 of Diamonds, 7 of Diamonds, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>22</v>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[4 of Spades, 2 of Spades, Queen of Diamonds, Jack of Spades]</t>
+        </is>
+      </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>600</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 10 of Hearts, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[King of Spades, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>23</v>
+          <t>[8 of Clubs, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, Queen of Spades]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>600</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[9 of Spades, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>[4 of Diamonds, 2 of Diamonds, 5 of Clubs, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>19</v>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 2 of Hearts, 10 of Clubs]</t>
+        </is>
+      </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>600</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[King of Clubs, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[Jack of Diamonds, 4 of Clubs, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>18</v>
+          <t>[7 of Diamonds, 3 of Hearts, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, 8 of Hearts, 7 of Clubs]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>600</v>
+      </c>
+      <c r="H13" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[8 of Spades, 3 of Diamonds, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[8 of Clubs, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>21</v>
+          <t>[6 of Hearts, 6 of Spades, 3 of Hearts, 1 of Diamonds, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[9 of Spades, 8 of Spades]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>700</v>
+      </c>
+      <c r="H14" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 2 of Diamonds, 1 of Spades, 1 of Diamonds, Jack of Spades, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[4 of Spades, 3 of Hearts, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>27</v>
+          <t>[8 of Clubs, 7 of Spades, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, 6 of Diamonds, 2 of Clubs, 3 of Clubs, Jack of Diamonds]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>600</v>
+      </c>
+      <c r="H15" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[1 of Hearts, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[Queen of Diamonds, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>21</v>
+          <t>[7 of Clubs, 6 of Diamonds, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 1 of Diamonds]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>500</v>
+      </c>
+      <c r="H16" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 9 of Hearts, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[5 of Hearts, 8 of Hearts, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>21</v>
+          <t>[10 of Hearts, 6 of Spades, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 5 of Hearts, Jack of Clubs]</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[5 of Diamonds, 4 of Hearts, 7 of Hearts, 2 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[Jack of Spades, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>18</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>600</v>
+      </c>
+      <c r="H17" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4256,7 +5966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4272,391 +5982,616 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Win rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 8 of Diamonds, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[5 of Diamonds, 3 of Hearts, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
+          <t>[6 of Spades, 1 of Spades, 3 of Spades]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, 10 of Diamonds]</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[5 of Spades, Jack of Hearts, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[Jack of Clubs, 6 of Spades, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
+          <t>[Queen of Clubs, King of Spades]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[4 of Spades, 3 of Clubs, 2 of Diamonds, Jack of Clubs]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H3" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 6 of Diamonds, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[10 of Hearts, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
+          <t>[5 of Spades, 6 of Clubs, 4 of Hearts, 4 of Spades]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, Queen of Diamonds]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H4" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[8 of Spades, 9 of Spades, 3 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, 7 of Spades, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
+          <t>[Jack of Clubs, 3 of Clubs, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, 9 of Clubs, 6 of Hearts]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H5" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[4 of Spades, 2 of Spades, King of Hearts, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[3 of Spades, King of Clubs, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
+          <t>[8 of Hearts, 8 of Diamonds, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 4 of Clubs, 8 of Clubs]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[7 of Spades, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, 1 of Diamonds, King of Hearts, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>[Queen of Hearts, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
-        <v>24</v>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H7" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 4 of Hearts, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>[5 of Diamonds, 2 of Hearts, 6 of Diamonds, 3 of Hearts, 2 of Spades]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
-        <v>17</v>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H8" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 2 of Clubs, 1 of Hearts, 3 of Diamonds, 8 of Hearts, 2 of Diamonds, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[Queen of Clubs, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>26</v>
+          <t>[4 of Hearts, 2 of Diamonds, 9 of Diamonds, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[2 of Spades, King of Hearts, 3 of Diamonds, 7 of Diamonds]</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H9" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[10 of Spades, 3 of Diamonds, 6 of Spades]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[1 of Spades, 6 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>19</v>
+          <t>[Jack of Diamonds, 7 of Spades, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 2 of Clubs, King of Diamonds, Queen of Hearts]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H10" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[4 of Spades, King of Diamonds, 2 of Hearts, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[9 of Diamonds, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>21</v>
+          <t>[5 of Clubs, 3 of Diamonds, 7 of Clubs, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, 1 of Spades, 4 of Clubs]</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>19</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 10 of Diamonds, 5 of Spades]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[7 of Diamonds, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>19</v>
+          <t>[3 of Hearts, 10 of Hearts, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>22</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 10 of Spades]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>900</v>
+      </c>
+      <c r="H12" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[8 of Clubs, 6 of Clubs, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>[King of Clubs, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>18</v>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, 5 of Hearts, 8 of Diamonds]</t>
+        </is>
+      </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 3 of Spades, 4 of Diamonds, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[3 of Clubs, King of Spades, 7 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>26</v>
+          <t>[1 of Diamonds, 1 of Clubs, Queen of Spades, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>22</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[9 of Hearts, 9 of Spades]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>900</v>
+      </c>
+      <c r="H14" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 2 of Clubs, Jack of Spades, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[1 of Clubs, 3 of Clubs, Queen of Hearts, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>23</v>
+          <t>[10 of Clubs, 1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[5 of Spades, King of Hearts, 1 of Diamonds, 1 of Clubs]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[1 of Spades, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[4 of Clubs, 9 of Clubs, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>19</v>
+          <t>[Jack of Spades, 6 of Clubs, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>25</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[King of Spades, Jack of Diamonds]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>900</v>
+      </c>
+      <c r="H16" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 7 of Hearts, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[Jack of Spades, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>[Jack of Hearts, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[8 of Spades, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>18</v>
       </c>
-      <c r="D17" t="n">
-        <v>19</v>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>47.05882352941176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 5 of Diamonds, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>25</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[King of Clubs, 1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>21</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>900</v>
+      </c>
+      <c r="H18" t="n">
+        <v>47.05882352941176</v>
       </c>
     </row>
   </sheetData>
